--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3177421.041231633</v>
+        <v>3175533.459715231</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8777039.733369796</v>
+        <v>8777039.733369797</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.550174915741</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>326.2097809358202</v>
       </c>
     </row>
     <row r="3">
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>9.461970681989442</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>279.5106614771179</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>64.34226368086765</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>153.0555388225932</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.6012219076463</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>263.382317136682</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>83.59830597394867</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338501</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.726528083595454</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>113.7621097252859</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>111.9679966130646</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151916</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>143.03097280905</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065123</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.347695664762568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>248.7090763400658</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>32.91466611915799</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>173.6793845477824</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>80.40192578519526</v>
       </c>
       <c r="H31" t="n">
-        <v>58.84008750083484</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.149526959219</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.149526959219</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1568.149526959219</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.149526959219</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,31 +4492,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.981643776797</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>792.1933911785532</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>381.2074863889456</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>573.5274298401787</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U7" t="n">
-        <v>573.5274298401787</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>573.5274298401787</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>573.5274298401787</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>573.5274298401787</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1430.355453824636</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1430.355453824636</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1072.089755217885</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4796,58 +4796,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733133</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.723949158872</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.723949158872</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1816.955293888758</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1816.955293888758</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312743</v>
+        <v>1816.955293888758</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641982</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406189</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587816</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273833</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273833</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273833</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273833</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,7 +5066,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5133,10 +5133,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.1935825831089</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>527.1935825831089</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811262</v>
+        <v>709.4512536188986</v>
       </c>
       <c r="W13" t="n">
-        <v>755.1831334811262</v>
+        <v>420.034083581938</v>
       </c>
       <c r="X13" t="n">
-        <v>527.1935825831089</v>
+        <v>420.034083581938</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.1935825831089</v>
+        <v>420.034083581938</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,25 +5458,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683478</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683478</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>609.3753482118778</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>609.3753482118778</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683478</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>647.5712290164489</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>647.5712290164489</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>426.7786498729188</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1006.27269220504</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C28" t="n">
-        <v>837.3365092771335</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>687.2198698647977</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>539.3067762824046</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>392.416828784494</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>923.2788065678496</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.92115703528</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.92115703528</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y28" t="n">
-        <v>1187.92115703528</v>
+        <v>447.8017392184326</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.8783819731823</v>
+        <v>439.5324299542184</v>
       </c>
       <c r="C31" t="n">
-        <v>546.7030643266462</v>
+        <v>326.3571123076822</v>
       </c>
       <c r="D31" t="n">
-        <v>452.3472901956814</v>
+        <v>326.3571123076822</v>
       </c>
       <c r="E31" t="n">
-        <v>360.195061894659</v>
+        <v>234.2048840066599</v>
       </c>
       <c r="F31" t="n">
-        <v>269.0659796781194</v>
+        <v>234.2048840066599</v>
       </c>
       <c r="G31" t="n">
-        <v>156.651523279311</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386978</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220512</v>
+        <v>730.4517433652467</v>
       </c>
       <c r="Y31" t="n">
-        <v>785.7659815220512</v>
+        <v>565.4200295030873</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6862,13 +6862,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649682</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,28 +7093,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7546,25 +7546,25 @@
         <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>188.8856946302394</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>176.7176547498443</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706263073</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1054520983419</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.85336329292645</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.2331835502364</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>85.95281337053866</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338569</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>5.584500209162286</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709092</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>282.8896567338148</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>37.81392199652518</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>133.5789023442196</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>24.2414254358209</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30.8883860496253</v>
       </c>
       <c r="H31" t="n">
-        <v>34.8704842381442</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672197</v>
-      </c>
       <c r="J2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
         <v>671256.5266196955</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380344</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="O2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380336</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.333471679274226e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.549224629750825e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284543</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>15045.66962143911</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143912</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563561</v>
+        <v>33210.29213563555</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,22 +26485,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.4553911428</v>
+        <v>-152242.4553911432</v>
       </c>
       <c r="C6" t="n">
         <v>437725.4238234013</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234012</v>
+        <v>437725.4238234009</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016756</v>
+        <v>12907.45739419581</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970638</v>
+        <v>538067.493871092</v>
       </c>
       <c r="G6" t="n">
-        <v>538164.9529970638</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="H6" t="n">
-        <v>538164.9529970638</v>
+        <v>538067.493871092</v>
       </c>
       <c r="I6" t="n">
-        <v>538164.952997064</v>
+        <v>538067.4938710912</v>
       </c>
       <c r="J6" t="n">
-        <v>361741.7338044705</v>
+        <v>361644.2746784987</v>
       </c>
       <c r="K6" t="n">
-        <v>497255.4206509913</v>
+        <v>497236.9269130572</v>
       </c>
       <c r="L6" t="n">
-        <v>531836.9906543822</v>
+        <v>531836.9906543818</v>
       </c>
       <c r="M6" t="n">
-        <v>407378.8822214117</v>
+        <v>407378.8822214124</v>
       </c>
       <c r="N6" t="n">
-        <v>542179.8974552492</v>
+        <v>542179.8974552485</v>
       </c>
       <c r="O6" t="n">
         <v>542179.8974552485</v>
       </c>
       <c r="P6" t="n">
-        <v>498017.2921524036</v>
+        <v>498017.2921524032</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,13 +26808,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108354</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.3801951565208</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>60.02815772023337</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.771212764859854</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>321.895674975186</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>59.09000012742572</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837007195</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.1326197558343</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>118.5480529355797</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>142.1113494150885</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.183094401190819e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33658,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33895,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34132,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047513</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>499.3100716807058</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>492.1965505854573</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478573</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843351</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003107</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477048</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
